--- a/Gantt Chart - CS6440 Project.xlsx
+++ b/Gantt Chart - CS6440 Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed.baalwy\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395BECCC-B55B-478A-9F13-92278AA252D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB5994E-7173-478E-A5AB-F2527CC24D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{09F9B11A-14FB-4791-8A1E-72D0FB5BAB6D}"/>
   </bookViews>
@@ -101,12 +101,6 @@
     <t>Week 15</t>
   </si>
   <si>
-    <t>Implement Firebase au-thentication service from Google.</t>
-  </si>
-  <si>
-    <t>Create the required clas-ses and bind to the DB tables (Patient, Observa-tion, Medication, Ap-pointment, User, … etc.)</t>
-  </si>
-  <si>
     <t>Create the APIs services (inpuBloodPressure(), getAverageBloodPres-sure(), getNextAp-pointment(), get-NextMedication(), … etc.)</t>
   </si>
   <si>
@@ -153,6 +147,12 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>Create the required classes and bind to the DB tables (Patient, Observation, Medication, Appointment, User, … etc.)</t>
+  </si>
+  <si>
+    <t>Implement Firebase authentication service from Google.</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -477,7 +477,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -541,15 +540,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -561,12 +551,21 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,7 +883,7 @@
   <dimension ref="A2:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -907,42 +906,42 @@
   <sheetData>
     <row r="2" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37">
+      <c r="C3" s="44"/>
+      <c r="D3" s="45">
         <v>44844</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="H3" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="H3" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="47"/>
     </row>
     <row r="4" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
-      <c r="H4" s="41" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="H4" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="38"/>
+      <c r="J4" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="38"/>
+      <c r="L4" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="42"/>
-      <c r="N4" s="45" t="s">
-        <v>34</v>
+      <c r="M4" s="38"/>
+      <c r="N4" s="41" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
     </row>
@@ -992,22 +991,22 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>1</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>44844</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="7"/>
@@ -1021,27 +1020,27 @@
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="21" t="s">
+      <c r="B8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>1</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>44851</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>27</v>
+      <c r="F8" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="47"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -1050,207 +1049,207 @@
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <v>1</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>44858</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>28</v>
+      <c r="F9" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="12"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
     </row>
     <row r="10" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="21" t="s">
+      <c r="A10" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="24">
         <v>0.1</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>44865</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>29</v>
+      <c r="F10" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="12"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="11"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="21" t="s">
+      <c r="A11" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="24">
         <v>0</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>44872</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>30</v>
+      <c r="F11" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="48"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="42"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="26" t="s">
+      <c r="A12" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="26">
         <v>0</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="27">
         <v>44879</v>
       </c>
-      <c r="F12" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
+      <c r="F12" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="34" t="s">
+      <c r="A13" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="33">
         <v>0</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="34">
         <v>44886</v>
       </c>
-      <c r="F13" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="17"/>
+      <c r="F13" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="16"/>
     </row>
     <row r="14" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="34" t="s">
+      <c r="A14" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="33">
         <v>0</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="34">
         <v>44893</v>
       </c>
-      <c r="F14" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="48"/>
+      <c r="F14" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="43"/>
     </row>
     <row r="15" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="34" t="s">
+      <c r="A15" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="33">
         <v>0</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="34">
         <v>44893</v>
       </c>
-      <c r="F15" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="48"/>
+      <c r="F15" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="43"/>
     </row>
     <row r="16" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Gantt Chart - CS6440 Project.xlsx
+++ b/Gantt Chart - CS6440 Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed.baalwy\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB5994E-7173-478E-A5AB-F2527CC24D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7621F8-A496-4AFB-814B-ED4807EA1148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{09F9B11A-14FB-4791-8A1E-72D0FB5BAB6D}"/>
   </bookViews>
@@ -458,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -565,7 +565,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -883,7 +884,7 @@
   <dimension ref="A2:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1190,7 +1191,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
-      <c r="N13" s="43"/>
+      <c r="N13" s="12"/>
       <c r="O13" s="16"/>
     </row>
     <row r="14" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1220,7 +1221,7 @@
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="16"/>
-      <c r="O14" s="43"/>
+      <c r="O14" s="49"/>
     </row>
     <row r="15" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="32" t="s">
